--- a/data/trans_camb/P16A10-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A10-Habitat-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.080370348089497</v>
+        <v>-2.95037818742138</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.558387384543499</v>
+        <v>-1.472050633091673</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.142910600540098</v>
+        <v>-1.317920733547877</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.77663465577739</v>
+        <v>-1.948901034705964</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.9950386704255937</v>
+        <v>-0.9366380296111334</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.8984712422692106</v>
+        <v>-0.4804781889774777</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.686818504705308</v>
+        <v>-1.97979106898661</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.4989065717408466</v>
+        <v>-0.6083254530597384</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.1329112757708597</v>
+        <v>-0.2921230379230031</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.613442096807851</v>
+        <v>1.588198420540962</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.473646426152321</v>
+        <v>3.303291131536155</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.440659715735259</v>
+        <v>3.504554875161721</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.315985860770473</v>
+        <v>2.949742713870509</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.27460057011622</v>
+        <v>4.548121351418279</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.968465887338196</v>
+        <v>3.995098745490261</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.572551014096764</v>
+        <v>1.557575081354842</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.963921401996311</v>
+        <v>2.957102420984577</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.08243461002056</v>
+        <v>3.121761832862378</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4748788219983464</v>
+        <v>-0.4374755379591729</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2436917130091953</v>
+        <v>-0.2324388521445774</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1714960435569193</v>
+        <v>-0.1890550196741095</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2958677583358598</v>
+        <v>-0.3147770606090444</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1744263724801312</v>
+        <v>-0.1679829244024462</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1288405773804085</v>
+        <v>-0.08835224880066415</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2785702818475994</v>
+        <v>-0.3231822721864392</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.08329427624031736</v>
+        <v>-0.1026551190890812</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.01973108783012485</v>
+        <v>-0.04365893661601609</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3498621092969096</v>
+        <v>0.3406563714050451</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.7656019435301682</v>
+        <v>0.7528535975074385</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.7754086113632583</v>
+        <v>0.7926890868363953</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7728421047043711</v>
+        <v>0.7666836440155023</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.005610378095335</v>
+        <v>1.089273836027192</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.011247165580483</v>
+        <v>0.9850846698945942</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3663836516281559</v>
+        <v>0.3329701228799715</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6387516501488697</v>
+        <v>0.653923720214192</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.6867575442110488</v>
+        <v>0.7278354816695353</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-0.3070373038352066</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-1.943024226579672</v>
+        <v>-1.943024226579674</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-0.5242085467327406</v>
@@ -878,7 +878,7 @@
         <v>-0.3061728315182484</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-1.332967975855076</v>
+        <v>-1.332967975855077</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.550337795410651</v>
+        <v>-3.161400147488722</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.524649639861923</v>
+        <v>-2.525215872101831</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.946201080453932</v>
+        <v>-3.814280476886744</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.656161412026501</v>
+        <v>-2.745612589680674</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.483262648712369</v>
+        <v>-2.590322852487504</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.698426051576476</v>
+        <v>-2.675929126513028</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.223588219942791</v>
+        <v>-2.213698588567473</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.806307754792957</v>
+        <v>-1.757102267606911</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.609252067933595</v>
+        <v>-2.734242015818363</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7981739577417178</v>
+        <v>0.9884165592341744</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.680869669980464</v>
+        <v>1.821658731377699</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.2034790897297947</v>
+        <v>-0.05845125923205201</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.459259231468629</v>
+        <v>1.215706365359526</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.699369985677908</v>
+        <v>1.456671830342336</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.120208268638597</v>
+        <v>0.9176646181694149</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6663553564053856</v>
+        <v>0.6646497876315755</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.259656952344659</v>
+        <v>1.20233532362717</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-0.09474812589585513</v>
+        <v>0.003597406384584837</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.05099595309351088</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.3227176993822027</v>
+        <v>-0.322717699382203</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.09715830688094476</v>
@@ -983,7 +983,7 @@
         <v>-0.05364823785796817</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.2335654103308814</v>
+        <v>-0.2335654103308816</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4767637015500762</v>
+        <v>-0.467124484687868</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3582559288925783</v>
+        <v>-0.3482638360174902</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5359702175551412</v>
+        <v>-0.5369375884689265</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3973181047941297</v>
+        <v>-0.4138324494966809</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3919495061974135</v>
+        <v>-0.4017079781165411</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4022493939101335</v>
+        <v>-0.3880371796939543</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3470780915590709</v>
+        <v>-0.3372838878991473</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2873910161837776</v>
+        <v>-0.2690497251818599</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4071622628076337</v>
+        <v>-0.4137124874233211</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1690149902128004</v>
+        <v>0.1916329686731892</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3382029701827426</v>
+        <v>0.3752984205394081</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.00972157534480267</v>
+        <v>-0.009256995053933932</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3450243111925081</v>
+        <v>0.2814326767414271</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.407741981284088</v>
+        <v>0.3234688042810189</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2776567036027821</v>
+        <v>0.227203655339383</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.13428566646358</v>
+        <v>0.1541357804591394</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2592372664204746</v>
+        <v>0.2552345489996908</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.02478457996698659</v>
+        <v>0.001461241637766501</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.7655674004806517</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9560051928118978</v>
+        <v>0.9560051928118991</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-1.290171861584672</v>
@@ -1092,7 +1092,7 @@
         <v>0.7653500711595852</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.1929496360836322</v>
+        <v>0.1929496360836315</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.105992280657313</v>
+        <v>-2.678426516534555</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.888080896177026</v>
+        <v>-1.638713007220232</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.525919893805974</v>
+        <v>-1.465951171220709</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.339288800688568</v>
+        <v>-3.312134317807327</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.492185458110229</v>
+        <v>-1.587725447032575</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.53964692444132</v>
+        <v>-2.988640731519858</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.60900777034879</v>
+        <v>-2.666948045451254</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.017667079482907</v>
+        <v>-0.950427526843841</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.503083974357758</v>
+        <v>-1.377854201265387</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.633142012570491</v>
+        <v>1.7313758076994</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.2106521830213</v>
+        <v>3.099346181437922</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.230130660768508</v>
+        <v>3.426830678353811</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.813467825100316</v>
+        <v>0.8893001661012055</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.231388731063742</v>
+        <v>3.37629516481321</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.418869192228652</v>
+        <v>1.264999165894038</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6311836805735764</v>
+        <v>0.5681608636317148</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.561588897810883</v>
+        <v>2.430538286009281</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.654705744340372</v>
+        <v>1.749834550063699</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1410431448202577</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.176128161640674</v>
+        <v>0.1761281616406743</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.2621050759189045</v>
@@ -1197,7 +1197,7 @@
         <v>0.1479185663667821</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.03729121434226935</v>
+        <v>0.03729121434226922</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4726399931068161</v>
+        <v>-0.4050812085909616</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2834113902662564</v>
+        <v>-0.2650566201028915</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2263350315614779</v>
+        <v>-0.2089575115767892</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.556873519040555</v>
+        <v>-0.5476720882951694</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2623487403295425</v>
+        <v>-0.2559037793764589</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4022139785390763</v>
+        <v>-0.4557371685100169</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4221295901120264</v>
+        <v>-0.4432778723973006</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1734474921170847</v>
+        <v>-0.1594118582944055</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2498466990973475</v>
+        <v>-0.2351671323654341</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3940183941821468</v>
+        <v>0.4050228207919379</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.7571103327712757</v>
+        <v>0.7038789303606297</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.7387361400708422</v>
+        <v>0.7749298812605513</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.233349549282432</v>
+        <v>0.2561057044837767</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.8702793021932942</v>
+        <v>0.9345743684191017</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4117002110246676</v>
+        <v>0.3383732668979688</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1472305223677034</v>
+        <v>0.1292909484451201</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.5675722901658381</v>
+        <v>0.5743800681540688</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.3814040668374888</v>
+        <v>0.4095105290052251</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>1.093632588544031</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.72172929262911</v>
+        <v>1.721729292629109</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-0.5096474177626271</v>
@@ -1306,7 +1306,7 @@
         <v>0.02025067282850623</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.8654626775645352</v>
+        <v>0.865462677564538</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.1722068746156334</v>
+        <v>-0.2075622366162499</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.046387667151146</v>
+        <v>-0.7805412911917815</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.2072282469098758</v>
+        <v>-0.1955932830605284</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.522794252106058</v>
+        <v>-2.61178031985811</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.848619072845803</v>
+        <v>-2.870436420928494</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.744859672800935</v>
+        <v>-1.662257805555168</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.7393740834680774</v>
+        <v>-0.95779491844125</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.419837550696266</v>
+        <v>-1.312680816062409</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.535656220071919</v>
+        <v>-0.3909260614346614</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.998157875479205</v>
+        <v>3.905577507391342</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.045103731958476</v>
+        <v>3.19097543713105</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.5665201252558</v>
+        <v>3.521760674094347</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.481577538081847</v>
+        <v>1.404836099160547</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.159282810204061</v>
+        <v>1.390322390730918</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.932422673258133</v>
+        <v>1.817051116292661</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.144778101772898</v>
+        <v>1.995770851533657</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.354652233564827</v>
+        <v>1.440458329958317</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.074421962725863</v>
+        <v>2.096727007373218</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.2346442930686339</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.3694055544397774</v>
+        <v>0.3694055544397771</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.09225307849495885</v>
@@ -1411,7 +1411,7 @@
         <v>0.003960126763235062</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.1692458290659771</v>
+        <v>0.1692458290659776</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.02876582231793449</v>
+        <v>-0.05873983029416384</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1891819157546725</v>
+        <v>-0.1490001154726611</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.04590427675470315</v>
+        <v>-0.03899112639309581</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3965855490705437</v>
+        <v>-0.3977718685563051</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4489467974103558</v>
+        <v>-0.444846911494683</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2547615066750492</v>
+        <v>-0.2510050980847172</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1273693892596287</v>
+        <v>-0.167820102119673</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2363007367754082</v>
+        <v>-0.2295645108705353</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.08667597057379582</v>
+        <v>-0.06502020369670801</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.102471664458098</v>
+        <v>1.032061495949506</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.8056723277210424</v>
+        <v>0.8228516270563545</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.9372496135962275</v>
+        <v>0.937972761629139</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3344536994719908</v>
+        <v>0.2897513569746872</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2496371266787143</v>
+        <v>0.3110124440248813</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4250237268897016</v>
+        <v>0.426544523632209</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4946211639660983</v>
+        <v>0.4449887499188869</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3032656092320429</v>
+        <v>0.3296385337042335</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4757014610640919</v>
+        <v>0.4796542593862375</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>0.09266224618510385</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.03277476942862151</v>
+        <v>0.03277476942862012</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-0.3176218735451708</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.392563775391823</v>
+        <v>-1.207643121913433</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.6154175290791137</v>
+        <v>-0.5770347303584893</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.7179683448207328</v>
+        <v>-0.7392933885922522</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.588700555013578</v>
+        <v>-1.617874695507479</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.9895293564412244</v>
+        <v>-0.9301521135553078</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.9663324453885668</v>
+        <v>-0.9312751447744954</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.110170976062123</v>
+        <v>-1.055935991039349</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.5559076845750353</v>
+        <v>-0.4892704371257997</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.5285260931392666</v>
+        <v>-0.4858870704343468</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.8271720194348754</v>
+        <v>0.9888608337098885</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.670386742838225</v>
+        <v>1.654227883528221</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.460739257578498</v>
+        <v>1.360730788118687</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.6119220730968632</v>
+        <v>0.5513262911340616</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.222905371853063</v>
+        <v>1.32840050725984</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.001206874386207</v>
+        <v>0.9599985815009004</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.3836969273271676</v>
+        <v>0.4833995921712793</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.081731440097667</v>
+        <v>1.103973834826328</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.8458107499050339</v>
+        <v>0.9117197110946624</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.01749844894573158</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.006189226499098758</v>
+        <v>0.006189226499098495</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.05933137254435888</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2304381546649446</v>
+        <v>-0.2044536341421034</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1021152608584381</v>
+        <v>-0.09926618649487573</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1161657248406775</v>
+        <v>-0.1230889506675707</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2669616063002122</v>
+        <v>-0.2683549890597887</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1699031431779092</v>
+        <v>-0.1602040450480403</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.161718864539774</v>
+        <v>-0.1570577195146432</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1922395735094805</v>
+        <v>-0.1832674724075503</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.09389581480847173</v>
+        <v>-0.08607034382486393</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.09141917129045735</v>
+        <v>-0.08385865862744644</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.164530058167258</v>
+        <v>0.2029900629751613</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3349786162639286</v>
+        <v>0.3405345086463984</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3124988064840179</v>
+        <v>0.2754564814115215</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1384938182679858</v>
+        <v>0.1182383752481789</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2613935755423916</v>
+        <v>0.2831423904085407</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2205129001309788</v>
+        <v>0.2010716709732965</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.07698189444527441</v>
+        <v>0.09999191335480116</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2181466610107042</v>
+        <v>0.2154988440888026</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.1686655503470385</v>
+        <v>0.1855278002455515</v>
       </c>
     </row>
     <row r="34">
